--- a/Dividend Yield.xlsx
+++ b/Dividend Yield.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="28">
   <si>
     <t>Industry</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>banks-private-sector</t>
+  </si>
+  <si>
+    <t>banks-public-sector</t>
   </si>
   <si>
     <t>castings-forgings</t>
@@ -70,6 +73,9 @@
     <t>paints-varnishes</t>
   </si>
   <si>
+    <t>pesticides-agro-chemicals</t>
+  </si>
+  <si>
     <t>pharmaceuticals</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>telecommunications-service</t>
+  </si>
+  <si>
+    <t>textiles-composite-mills</t>
   </si>
   <si>
     <t>textiles-denim</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,10 +486,10 @@
         <v>2015</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1.5642597922663</v>
+        <v>1.529683508482095</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -494,10 +503,10 @@
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1.72068577149293</v>
+        <v>1.682651859330305</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -511,10 +520,10 @@
         <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1.72068577149293</v>
+        <v>1.682651859330305</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,10 +537,10 @@
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1.877111750719559</v>
+        <v>1.835620210178514</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -545,10 +554,10 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1.877111750719559</v>
+        <v>1.835620210178514</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,10 +571,10 @@
         <v>2015</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>0.5243773789767855</v>
+        <v>0.5658254727971084</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -579,10 +588,10 @@
         <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>0.5243773789767855</v>
+        <v>0.5658254727971084</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -596,10 +605,10 @@
         <v>2017</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1.017909029778466</v>
+        <v>1.09836709425321</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -613,10 +622,10 @@
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0.6169145635021006</v>
+        <v>0.6656770268201274</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,10 +639,10 @@
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>0.6477602916772056</v>
+        <v>0.6989608781611338</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -647,10 +656,10 @@
         <v>2015</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>0.5524861878453039</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -664,10 +673,10 @@
         <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.166359729895641</v>
+        <v>1.241830065359477</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -681,10 +690,10 @@
         <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1.915285451197053</v>
+        <v>2.03921568627451</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -698,10 +707,10 @@
         <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2.983425414364641</v>
+        <v>3.176470588235294</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -715,10 +724,10 @@
         <v>2019</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>3.806015960712093</v>
+        <v>4.052287581699346</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -729,13 +738,13 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>0.1332267519317879</v>
+        <v>0.1674691228804689</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -743,16 +752,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1.602392906740733</v>
+        <v>0.2093364036005862</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -760,16 +769,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.602392906740733</v>
+        <v>0.2791152048007816</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -777,16 +786,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>1.602392906740733</v>
+        <v>0.3070267252808597</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -794,16 +803,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>0.9614357440444397</v>
+        <v>0.3488940060009769</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -811,16 +820,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>1.068261937827155</v>
+        <v>0.3907612867210942</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -828,16 +837,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23">
-        <v>2.340885942869146</v>
+        <v>0.4884516084013677</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -845,16 +854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>1.24363155401569</v>
+        <v>0.6280092108017584</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -862,16 +871,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>1.24363155401569</v>
+        <v>0.8373456144023447</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -879,16 +888,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>1.735556581055181</v>
+        <v>1.395576024003908</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -896,16 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>0.8275625383342335</v>
+        <v>1.674691228804689</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -913,16 +922,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>27.99616490891659</v>
+        <v>1.953806433605471</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -930,16 +939,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>16.29913710450623</v>
+        <v>2.232921638406252</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -947,16 +956,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>2.157238734419943</v>
+        <v>2.512036843207034</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -964,16 +973,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>1.917545541706616</v>
+        <v>2.791152048007815</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -981,16 +990,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E32">
-        <v>3.259827420901246</v>
+        <v>0.6419649710417975</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -998,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E33">
-        <v>0.01893918896981634</v>
+        <v>0.6977880120019538</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1015,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>0.01893918896981634</v>
+        <v>0.6977880120019538</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1032,16 +1041,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>0.01893918896981634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1049,16 +1058,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>0.01893918896981634</v>
+        <v>0.1395576024003908</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1066,16 +1075,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E37">
-        <v>0.02705598424259478</v>
+        <v>4.179728317659352</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1083,16 +1092,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>0.4388049877500274</v>
+        <v>4.179728317659352</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1100,16 +1109,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0.6094513718750381</v>
+        <v>4.179728317659352</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1117,16 +1126,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>0.08776099755000548</v>
+        <v>6.269592476489028</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1134,16 +1143,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0.09751221950000609</v>
+        <v>6.792058516196447</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1151,16 +1160,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0.1462683292500091</v>
+        <v>5.22466039707419</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1168,16 +1177,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.5164205599935447</v>
+        <v>5.22466039707419</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1185,16 +1194,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>0.6455256999919309</v>
+        <v>6.269592476489028</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1202,16 +1211,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.710078269991124</v>
+        <v>8.359456635318704</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1219,16 +1228,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.8069071249899137</v>
+        <v>9.404388714733543</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1236,16 +1245,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.4841442749939482</v>
+        <v>15.67398119122257</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1253,16 +1262,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E48">
-        <v>0.398061613014884</v>
+        <v>17.24137931034483</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1270,16 +1279,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.4153686396677051</v>
+        <v>17.76384535005225</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1287,16 +1296,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>0.4153686396677051</v>
+        <v>22.46603970741902</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1304,16 +1313,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0.3461405330564209</v>
+        <v>22.46603970741902</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1321,16 +1330,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>0.4153686396677051</v>
+        <v>3.343782654127482</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1338,16 +1347,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E53">
-        <v>0.2557014512785072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1355,16 +1364,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>0.2557014512785072</v>
+        <v>1.253918495297806</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1372,16 +1381,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>1.216735803458571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1389,16 +1398,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>0.27643400138217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1406,16 +1415,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>0.5162749739654836</v>
+        <v>1.706484641638225</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1423,16 +1432,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>0.304077401520387</v>
+        <v>1.706484641638225</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1440,16 +1449,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>2017</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>1.630671010287653</v>
+        <v>1.706484641638225</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1457,16 +1466,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>2018</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.331720801658604</v>
+        <v>1.023890784982935</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1474,16 +1483,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>1.94580368119405</v>
+        <v>1.137656427758817</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1491,16 +1500,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>1.870156404985764</v>
+        <v>2.503636462839808</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1508,16 +1517,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>2015</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>2.781546811397557</v>
+        <v>1.330147213143142</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1525,16 +1534,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>2016</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>2.37449118046133</v>
+        <v>1.330147213143142</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1542,16 +1551,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <v>2017</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>13.19538670284939</v>
+        <v>1.856182759711166</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1559,16 +1568,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C66">
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>14.38263229308005</v>
+        <v>0.8850022050182038</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1576,16 +1585,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>12.78833107191316</v>
+        <v>29.65972574911122</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1593,16 +1602,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.3557681091799837</v>
+        <v>17.26764855256475</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1610,16 +1619,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C69">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.4374198063688324</v>
+        <v>2.28542407313357</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1627,16 +1636,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0.6007232007465299</v>
+        <v>2.031488065007618</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1644,16 +1653,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0.5074069753878455</v>
+        <v>3.453529710512951</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1661,16 +1670,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.6123877289163654</v>
+        <v>0.53578715609411</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1678,16 +1687,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>1.762114537444934</v>
+        <v>0.588402119789785</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1695,16 +1704,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E74">
-        <v>1.236476043276661</v>
+        <v>0.00963751913735943</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1712,16 +1721,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>0.5559879906594017</v>
+        <v>0.00963751913735943</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1729,16 +1738,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.5559879906594017</v>
+        <v>0.01376788448194204</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1746,16 +1755,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0.5559879906594017</v>
+        <v>0.44589774078478</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1763,16 +1772,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>4.411764705882353</v>
+        <v>0.6193024177566389</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1780,16 +1789,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C79">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>6.078431372549019</v>
+        <v>0.089179548156956</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1797,16 +1806,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E80">
-        <v>6.372549019607843</v>
+        <v>0.09908838684106222</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,16 +1823,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C81">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>4.117647058823529</v>
+        <v>0.1486325802615933</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1831,16 +1840,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C82">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>3.725490196078431</v>
+        <v>0.5261427162117724</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1848,16 +1857,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C83">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>4.286827747466874</v>
+        <v>0.6576783952647156</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1865,16 +1874,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C84">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>1.169134840218238</v>
+        <v>0.7234462347911871</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1882,16 +1891,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C85">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>6.235385814497271</v>
+        <v>0.8220979940808945</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1899,16 +1908,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>5.455962587685113</v>
+        <v>0.4932587964485367</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1916,16 +1925,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>5.845674201091192</v>
+        <v>0.4135351864504297</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1933,16 +1942,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.8817130424825376</v>
+        <v>0.4315149771656658</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1950,16 +1959,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C89">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.311462269552273</v>
+        <v>0.4315149771656658</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1967,16 +1976,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.229016374670789</v>
+        <v>0.3595958143047215</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1984,16 +1993,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>1.222947440742013</v>
+        <v>0.4315149771656658</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2001,16 +2010,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C92">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E92">
-        <v>0.5725409366769725</v>
+        <v>0.2536157378847076</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2018,16 +2027,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C93">
         <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>5.765765765765765</v>
+        <v>0.2536157378847076</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2035,16 +2044,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C94">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>5.765765765765765</v>
+        <v>1.460986466953149</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2052,16 +2061,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>5.765765765765765</v>
+        <v>0.2741791760915758</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2069,16 +2078,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>2.882882882882883</v>
+        <v>0.6012579601658186</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2086,16 +2095,849 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>2017</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97">
+        <v>0.3015970937007335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98">
+        <v>2017</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98">
+        <v>1.963148547740188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>2018</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99">
+        <v>0.329015011309891</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>2018</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100">
+        <v>2.329313115562698</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>2019</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101">
+        <v>2.28949239752912</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>2015</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102">
+        <v>2.960288808664259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>2016</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103">
+        <v>2.527075812274368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>2017</v>
+      </c>
+      <c r="D104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104">
+        <v>14.04332129963899</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>2018</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105">
+        <v>15.30685920577617</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>2019</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106">
+        <v>13.6101083032491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>2015</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107">
+        <v>0.350937751697158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>2016</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108">
+        <v>0.4314808422506041</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109">
+        <v>2017</v>
+      </c>
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109">
+        <v>0.5925670233574962</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>2018</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110">
+        <v>0.5005177770107007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>2019</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111">
+        <v>0.6040731791508457</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>2015</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112">
+        <v>0.3838771593090211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>2016</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113">
+        <v>0.3838771593090211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>2017</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114">
+        <v>0.4990403071017274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115">
+        <v>2018</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115">
+        <v>0.4990403071017274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>2019</v>
+      </c>
+      <c r="D116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>2015</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117">
+        <v>1.194771359060325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>2016</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118">
+        <v>0.8879976111948096</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>2017</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119">
+        <v>0.450417822173779</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>2018</v>
+      </c>
+      <c r="D120" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120">
+        <v>0.450417822173779</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>2019</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121">
+        <v>0.3643296679038066</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122">
+        <v>2015</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122">
+        <v>4.661763182430333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123">
+        <v>2016</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123">
+        <v>6.422873718015125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124">
+        <v>2017</v>
+      </c>
+      <c r="D124" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124">
+        <v>6.733657930177148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125">
+        <v>2018</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125">
+        <v>4.350978970268311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126">
+        <v>2019</v>
+      </c>
+      <c r="D126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126">
+        <v>3.936600020718948</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
         <v>22</v>
       </c>
-      <c r="C97">
+      <c r="C127">
+        <v>2015</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127">
+        <v>4.32050274941084</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128">
+        <v>2016</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128">
+        <v>1.178318931657502</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>2017</v>
+      </c>
+      <c r="D129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129">
+        <v>6.284367635506677</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130">
+        <v>2018</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130">
+        <v>5.498821681068343</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131">
         <v>2019</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131">
+        <v>5.89159465828751</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
         <v>23</v>
       </c>
-      <c r="E97">
-        <v>1.801801801801802</v>
+      <c r="C132">
+        <v>2015</v>
+      </c>
+      <c r="D132" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132">
+        <v>0.8695652173913043</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133">
+        <v>2016</v>
+      </c>
+      <c r="D133" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133">
+        <v>0.3071710897797854</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134">
+        <v>2017</v>
+      </c>
+      <c r="D134" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134">
+        <v>0.2258610954263128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>2018</v>
+      </c>
+      <c r="D135" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135">
+        <v>1.20609824957651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136">
+        <v>2019</v>
+      </c>
+      <c r="D136" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136">
+        <v>0.564652738565782</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137">
+        <v>2015</v>
+      </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138">
+        <v>2016</v>
+      </c>
+      <c r="D138" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138">
+        <v>4.842615012106537</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139">
+        <v>2017</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139">
+        <v>4.842615012106537</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140">
+        <v>2018</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141">
+        <v>2019</v>
+      </c>
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>2015</v>
+      </c>
+      <c r="D142" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142">
+        <v>6.153846153846154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>2016</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143">
+        <v>6.153846153846154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144">
+        <v>2017</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144">
+        <v>6.153846153846154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145">
+        <v>2018</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145">
+        <v>3.076923076923077</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>2019</v>
+      </c>
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146">
+        <v>1.923076923076923</v>
       </c>
     </row>
   </sheetData>
